--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -32,6 +32,48 @@
   </si>
   <si>
     <t xml:space="preserve">Awaiting ET3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 La Nava S3 6AD, Southampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manchester@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 High Landing G3 6AD, Glasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glasgow@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -115,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +174,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,16 +195,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.28"/>
@@ -187,9 +233,91 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3577131270</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>7577126570</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3572531270</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2937126570</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1231123</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="manchester@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId2" display="glasgow@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -37,43 +37,61 @@
     <t xml:space="preserve">tribunalManchesterAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">35 La Nava S3 6AD, Southampton</t>
+    <t xml:space="preserve">Manchester Employment Tribunal, Alexandra House, 14-22 The Parsonage, Manchester, M3 2JA</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterTelephone</t>
   </si>
   <si>
+    <t xml:space="preserve">0161 833 6100</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalManchesterFax</t>
   </si>
   <si>
+    <t xml:space="preserve">0870 739 4433</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalManchesterDX</t>
   </si>
   <si>
+    <t xml:space="preserve">DX 743570</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalManchesterEmail</t>
   </si>
   <si>
-    <t xml:space="preserve">manchester@gmail.com</t>
+    <t xml:space="preserve">Manchesteret@justice.gov.uk</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">35 High Landing G3 6AD, Glasgow</t>
+    <t xml:space="preserve">Eagle Building, 215 Bothwell Street, Glasgow, G2 7TS</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowTelephone</t>
   </si>
   <si>
+    <t xml:space="preserve">0141 204 0730</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalGlasgowFax</t>
   </si>
   <si>
+    <t xml:space="preserve">01264 785 177</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalGlasgowDX</t>
   </si>
   <si>
+    <t xml:space="preserve">DX 7435701</t>
+  </si>
+  <si>
     <t xml:space="preserve">tribunalGlasgowEmail</t>
   </si>
   <si>
-    <t xml:space="preserve">glasgow@gmail.com</t>
+    <t xml:space="preserve">glasgowet@justice.gov.uk</t>
   </si>
 </sst>
 </file>
@@ -245,78 +263,78 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3577131270</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>7577126570</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>123456</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3572531270</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2937126570</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1231123</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="manchester@gmail.com"/>
-    <hyperlink ref="B12" r:id="rId2" display="glasgow@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="Manchesteret@justice.gov.uk"/>
+    <hyperlink ref="B12" r:id="rId2" display="glasgowet@justice.gov.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">tribunalGlasgowDX</t>
   </si>
   <si>
-    <t xml:space="preserve">DX 7435701</t>
+    <t xml:space="preserve">DX 580003</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowEmail</t>
@@ -216,7 +216,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -34,10 +34,34 @@
     <t xml:space="preserve">Awaiting ET3</t>
   </si>
   <si>
-    <t xml:space="preserve">tribunalManchesterAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester Employment Tribunal, Alexandra House, 14-22 The Parsonage, Manchester, M3 2JA</t>
+    <t xml:space="preserve">tribunalManchesterAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester Employment Tribunal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra House,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-22 The Parsonage,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalManchesterPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 2JA</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterTelephone</t>
@@ -64,10 +88,28 @@
     <t xml:space="preserve">Manchesteret@justice.gov.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">tribunalGlasgowAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Building, 215 Bothwell Street, Glasgow, G2 7TS</t>
+    <t xml:space="preserve">tribunalGlasgowAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Building,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 Bothwell Street,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgow,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalGlasgowPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 7TS</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowTelephone</t>
@@ -101,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,6 +174,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +244,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,10 +265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,51 +303,55 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -327,14 +383,70 @@
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="Manchesteret@justice.gov.uk"/>
-    <hyperlink ref="B12" r:id="rId2" display="glasgowet@justice.gov.uk"/>
+    <hyperlink ref="B11" r:id="rId1" display="Manchesteret@justice.gov.uk"/>
+    <hyperlink ref="B19" r:id="rId2" display="glasgowet@justice.gov.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">positionType</t>
   </si>
   <si>
-    <t xml:space="preserve">Awaiting ET3</t>
+    <t xml:space="preserve">Manually Created</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterAddressLine1</t>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,12 +174,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,10 +238,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,7 +258,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,7 +389,7 @@
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">glasgowet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">managingOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgow</t>
   </si>
 </sst>
 </file>
@@ -255,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,6 +437,14 @@
       </c>
       <c r="B19" s="0" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -37,25 +37,25 @@
     <t xml:space="preserve">tribunalManchesterAddressLine1</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester Employment Tribunal,</t>
+    <t xml:space="preserve">Manchester Employment Tribunal</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterAddressLine2</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandra House,</t>
+    <t xml:space="preserve">Alexandra House</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterAddressLine3</t>
   </si>
   <si>
-    <t xml:space="preserve">14-22 The Parsonage,</t>
+    <t xml:space="preserve">14-22 The Parsonage</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterTown</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester,</t>
+    <t xml:space="preserve">Manchester</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalManchesterPostCode</t>
@@ -91,19 +91,19 @@
     <t xml:space="preserve">tribunalGlasgowAddressLine1</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Building,</t>
+    <t xml:space="preserve">Eagle Building</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowAddressLine2</t>
   </si>
   <si>
-    <t xml:space="preserve">215 Bothwell Street,</t>
+    <t xml:space="preserve">215 Bothwell Street</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowTown</t>
   </si>
   <si>
-    <t xml:space="preserve">Glasgow,</t>
+    <t xml:space="preserve">Glasgow</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalGlasgowPostCode</t>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">managingOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasgow</t>
   </si>
 </sst>
 </file>
@@ -264,7 +261,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,7 +441,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -137,6 +137,147 @@
   </si>
   <si>
     <t xml:space="preserve">managingOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB1, 48 Huntly Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB10 1SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01224 593 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0870 761 7766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX AB77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalAberdeenEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aberdeenet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block C, Caledonian House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeePostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD1 4QG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01382 221 578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01382 227 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX DD51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalDundeeEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dundeeet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-56 Melville Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EH3 7HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0131 226 5584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0131 220 6847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX ED147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalEdinburghEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edinburghet@justice.gov.uk</t>
   </si>
 </sst>
 </file>
@@ -258,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="A20:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,10 +585,205 @@
         <v>27</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="Manchesteret@justice.gov.uk"/>
     <hyperlink ref="B19" r:id="rId2" display="glasgowet@justice.gov.uk"/>
+    <hyperlink ref="B28" r:id="rId3" display="aberdeenet@justice.gov.uk"/>
+    <hyperlink ref="B37" r:id="rId4" display="dundeeet@justice.gov.uk"/>
+    <hyperlink ref="B44" r:id="rId5" display="edinburghet@justice.gov.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -278,6 +278,486 @@
   </si>
   <si>
     <t xml:space="preserve">edinburghet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol Civil and Family Justice Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Redcliff Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS1 6GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0117 929 8261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0870 739 4009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 95903 Bristol 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalBristolEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bristolet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Albion Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS1 5ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0113 245 9741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0113 242 8843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLeedsEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leedset@hmcts.gsi.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victory House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-34 Kingsway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC2B 6EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0207 273 8603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01264 785 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 141420 Bloomsbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonCentralEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">londoncentralet@hmcts.gsi.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Clove Crescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E14 2BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0207 538 6161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08703 240 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonEastEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eastlondon@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montague Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 London Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Croydon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0 2RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0208 667 9131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0870 324 0174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 155061 Croydon 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalLondonSouthEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">londonsouthet@hmcts.gsi.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham Justice Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrington Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG2 1EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0115 947 5701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 719030 Nottingham 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsEastEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.midlandseastet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13th Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre City Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-7 Hill Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5 4UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0121 600 7780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01264 347 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalMidlandsWestEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MidlandsWestET@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earl Grey Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Quays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastlePostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE29 6AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0191 260 6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0870 739 4206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 65137 North Shields 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalNewcastleEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newcastleet@hmcts.gsi.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitzalan Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF24 0RZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0292 067 8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0870 761 7635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 743942 Caerdydd/Cardiff 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWalesEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiffet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordAddressLine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford Tribunal Hearing Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordAddressLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radius House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordAddressLine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 Clarendon Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordTown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordPostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD17 1HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordTelephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0192 328 1750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX 155650 Watford 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunalWatfordEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watfordet@justice.gov.uk</t>
   </si>
 </sst>
 </file>
@@ -399,10 +879,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="A20:B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,6 +1257,662 @@
         <v>85</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="Manchesteret@justice.gov.uk"/>
@@ -784,6 +1920,16 @@
     <hyperlink ref="B28" r:id="rId3" display="aberdeenet@justice.gov.uk"/>
     <hyperlink ref="B37" r:id="rId4" display="dundeeet@justice.gov.uk"/>
     <hyperlink ref="B44" r:id="rId5" display="edinburghet@justice.gov.uk"/>
+    <hyperlink ref="B52" r:id="rId6" display="bristolet@justice.gov.uk"/>
+    <hyperlink ref="B60" r:id="rId7" display="leedset@hmcts.gsi.gov.uk"/>
+    <hyperlink ref="B69" r:id="rId8" display="londoncentralet@hmcts.gsi.gov.uk"/>
+    <hyperlink ref="B77" r:id="rId9" display="eastlondon@justice.gov.uk"/>
+    <hyperlink ref="B86" r:id="rId10" display="londonsouthet@hmcts.gsi.gov.uk"/>
+    <hyperlink ref="B93" r:id="rId11" display="e.midlandseastet@justice.gov.uk"/>
+    <hyperlink ref="B101" r:id="rId12" display="MidlandsWestET@justice.gov.uk"/>
+    <hyperlink ref="B110" r:id="rId13" display="newcastleet@hmcts.gsi.gov.uk"/>
+    <hyperlink ref="B117" r:id="rId14" display="cardiffet@justice.gov.uk"/>
+    <hyperlink ref="B126" r:id="rId15" display="watfordet@justice.gov.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -881,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45:B126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
   <si>
     <t xml:space="preserve">FIELDS</t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t xml:space="preserve">watfordet@justice.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
   </si>
 </sst>
 </file>
@@ -879,10 +885,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1911,6 +1917,14 @@
       </c>
       <c r="B126" s="0" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/postDefaultValues.xlsx
+++ b/src/test/resources/postDefaultValues.xlsx
@@ -367,13 +367,13 @@
     <t xml:space="preserve">tribunalLeedsFax</t>
   </si>
   <si>
-    <t xml:space="preserve">0113 242 8843</t>
+    <t xml:space="preserve">01264 785136</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalLeedsEmail</t>
   </si>
   <si>
-    <t xml:space="preserve">leedset@hmcts.gsi.gov.uk</t>
+    <t xml:space="preserve">LeedsET@justice.gov.uk</t>
   </si>
   <si>
     <t xml:space="preserve">tribunalLondonCentralAddressLine1</t>
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="B127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="A59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1935,7 +1935,7 @@
     <hyperlink ref="B37" r:id="rId4" display="dundeeet@justice.gov.uk"/>
     <hyperlink ref="B44" r:id="rId5" display="edinburghet@justice.gov.uk"/>
     <hyperlink ref="B52" r:id="rId6" display="bristolet@justice.gov.uk"/>
-    <hyperlink ref="B60" r:id="rId7" display="leedset@hmcts.gsi.gov.uk"/>
+    <hyperlink ref="B60" r:id="rId7" display="LeedsET@justice.gov.uk"/>
     <hyperlink ref="B69" r:id="rId8" display="londoncentralet@hmcts.gsi.gov.uk"/>
     <hyperlink ref="B77" r:id="rId9" display="eastlondon@justice.gov.uk"/>
     <hyperlink ref="B86" r:id="rId10" display="londonsouthet@hmcts.gsi.gov.uk"/>
